--- a/biology/Botanique/Araujia_angustifolia/Araujia_angustifolia.xlsx
+++ b/biology/Botanique/Araujia_angustifolia/Araujia_angustifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Araujia angustifolia est une espèce de plante à fleurs de la famille des Apocynacées originaire d'Amérique du Sud.
 </t>
@@ -511,11 +523,13 @@
           <t>Position taxinomique et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme le genre, Araujia angustifolia appartient à la sous-famille Asclepiadoideae, tribu Asclepiadeae, sous-tribu Oxypetalinae.
-L'espèce, collectée dans les forêts uruguayennes par James Tweedie, a été décrite par William Jackson Hooker et George Arnott Walker Arnott en 1835 dans le volume 1 du Journal of Botany comme faisant partie du genre Physianthus sous le nom de : Physianthus angustifolius Hook. &amp; Arn. [1].
-En 1841, Ernst Gottlieb von Steudel la reclasse dans le genre Araujia : Araujia angustifolia (Hook. &amp; Arn.) Steud.[2]. 
+L'espèce, collectée dans les forêts uruguayennes par James Tweedie, a été décrite par William Jackson Hooker et George Arnott Walker Arnott en 1835 dans le volume 1 du Journal of Botany comme faisant partie du genre Physianthus sous le nom de : Physianthus angustifolius Hook. &amp; Arn. .
+En 1841, Ernst Gottlieb von Steudel la reclasse dans le genre Araujia : Araujia angustifolia (Hook. &amp; Arn.) Steud.. 
 Elle compte donc un synonyme : Physianthus angustifolius Hook. &amp; Arn.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de lianes, pouvant atteindre dix mètres de haut, aux feuilles entières, pétiolées et opposées, sagittées, de moins de 5 cm de long.
 Comme les espèces de la sous-famille, Araujia angustifolia a une fleur  régulière, hermaphrodite, parfumée, au calice à cinq sépales, une corolle gamopétale jaune- verdâtre et cinq étamines, alternes aux divisions de la corolle. Les deux ovaires forment des fruits à follicules épais, ovoïdes, déhiscents à graines nombreuses.
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Araujia angustifolia est originaire d'Amérique du Sud : Argentine, sud du Brésil et Uruguay.
 </t>
